--- a/Шаблон2.xlsx
+++ b/Шаблон2.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VisualStudio\source\Specification_Ver2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VisualStudio\source\Specification_Ver2\Specification_Ver2\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C09DD5-E734-45D7-8BC3-73A08455FA31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C86702-3F3C-4B7E-9A6E-D6EAD1118AFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3645" yWindow="7230" windowWidth="21600" windowHeight="11385" xr2:uid="{3A30BECC-C412-4A36-B087-6767A887FB2C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3A30BECC-C412-4A36-B087-6767A887FB2C}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Лист1!$1:$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>Опорная ПС</t>
   </si>
@@ -42,9 +45,6 @@
     <t>Долгота</t>
   </si>
   <si>
-    <t>ПС Уркарах Новая</t>
-  </si>
-  <si>
     <t>№ ТП</t>
   </si>
   <si>
@@ -78,31 +78,49 @@
     <t>Вариант установки ПУ</t>
   </si>
   <si>
-    <t>ТП 3-5/160</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> с.Зубанчи</t>
-  </si>
-  <si>
-    <t>Нет данных в РК</t>
-  </si>
-  <si>
-    <t>СИП</t>
-  </si>
-  <si>
     <t>фасад-кирпич</t>
   </si>
   <si>
     <t>К(1)-Б</t>
   </si>
   <si>
-    <t>42.131016</t>
-  </si>
-  <si>
-    <t>47.711219</t>
-  </si>
-  <si>
-    <t>Вариант №1.5</t>
+    <t>ПС Кубачи</t>
+  </si>
+  <si>
+    <t>ТП 1-2/1000</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> с. Кубачи</t>
+  </si>
+  <si>
+    <t>Интернациональная улица</t>
+  </si>
+  <si>
+    <t>д.8</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>АС</t>
+  </si>
+  <si>
+    <t>42.096775</t>
+  </si>
+  <si>
+    <t>47.597069</t>
+  </si>
+  <si>
+    <t>Вариант №1.1</t>
   </si>
 </sst>
 </file>
@@ -122,10 +140,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -157,7 +179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -171,6 +193,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -190,312 +222,310 @@
         <sz val="10"/>
         <color auto="1"/>
         <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -508,11 +538,49 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
         <bottom style="medium">
           <color theme="1"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -528,25 +596,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9FF54E24-D2C3-42D1-A6A3-9DF2B6A3D040}" name="Таблица2" displayName="Таблица2" ref="A1:P2" totalsRowShown="0" headerRowDxfId="2" dataDxfId="3" headerRowBorderDxfId="19" tableBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9FF54E24-D2C3-42D1-A6A3-9DF2B6A3D040}" name="Таблица2" displayName="Таблица2" ref="A1:P2" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16">
   <autoFilter ref="A1:P2" xr:uid="{E3DEB0F1-9231-4D3C-9072-800911838C12}"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{B5B0BF99-AD60-4D86-9CFB-1FDAF9F9F963}" name="Опорная ПС" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{52D3EAFE-C95D-45CC-A36E-FBC4BD9EAA80}" name="№ ТП" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{C52517CC-5DAC-478B-A76D-F4031082F3A8}" name="№ фидера 0,4кВ" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{9A3317C1-6133-472C-9329-B3D4677AE96C}" name="Населенный пункт" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{D42A9BAC-AD6F-4A59-9DFF-31FDC3734ED3}" name="Улица" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{38362C6A-6C48-4B9F-B672-A6120EC7D467}" name="№ дома" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{AD831F1B-A3F5-4ED4-BF35-F1AD50C9E7E0}" name="№ опоры ВЛ- 0,4кВ" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{AAD18CC2-2468-476C-96A0-2CB6B3010778}" name="№ потребителя на схеме" dataDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{AB95FB63-8443-47F9-A781-B8598F80720E}" name="Расстояние от опоры до строения" dataDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{E0B969D3-79A5-4FAE-BE76-FEDA9321E413}" name="Тип ввода (СИП,ВЛ,кабель)" dataDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{C3C9B5F3-C590-4B9C-8E10-E5E5039BEDF3}" name="Крепление отвода абонента (Фасад-кирпич, фасад -фасад-дерево, гусак)" dataDxfId="7"/>
-    <tableColumn id="13" xr3:uid="{794C3D30-D3C3-4FE7-B751-3AEC3B77B948}" name="Тип прибора учёта (ПУ)" dataDxfId="6"/>
-    <tableColumn id="15" xr3:uid="{A0EE0DB4-3FFB-44BA-B551-5603F232362A}" name="Ввод (1ф,3ф)" dataDxfId="5"/>
-    <tableColumn id="16" xr3:uid="{1A5B5EDA-F0EA-4C1C-A8CB-74784364660C}" name="Широта" dataDxfId="4"/>
-    <tableColumn id="17" xr3:uid="{C5D73598-A7D8-405A-A8DB-C6CFF2827341}" name="Долгота" dataDxfId="1"/>
-    <tableColumn id="24" xr3:uid="{72285675-703C-4429-90BD-0525342470A3}" name="Вариант установки ПУ" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{B5B0BF99-AD60-4D86-9CFB-1FDAF9F9F963}" name="Опорная ПС" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{52D3EAFE-C95D-45CC-A36E-FBC4BD9EAA80}" name="№ ТП" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{C52517CC-5DAC-478B-A76D-F4031082F3A8}" name="№ фидера 0,4кВ" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{9A3317C1-6133-472C-9329-B3D4677AE96C}" name="Населенный пункт" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{D42A9BAC-AD6F-4A59-9DFF-31FDC3734ED3}" name="Улица" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{38362C6A-6C48-4B9F-B672-A6120EC7D467}" name="№ дома" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{AD831F1B-A3F5-4ED4-BF35-F1AD50C9E7E0}" name="№ опоры ВЛ- 0,4кВ" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{AAD18CC2-2468-476C-96A0-2CB6B3010778}" name="№ потребителя на схеме" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{AB95FB63-8443-47F9-A781-B8598F80720E}" name="Расстояние от опоры до строения" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{E0B969D3-79A5-4FAE-BE76-FEDA9321E413}" name="Тип ввода (СИП,ВЛ,кабель)" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{C3C9B5F3-C590-4B9C-8E10-E5E5039BEDF3}" name="Крепление отвода абонента (Фасад-кирпич, фасад -фасад-дерево, гусак)" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{794C3D30-D3C3-4FE7-B751-3AEC3B77B948}" name="Тип прибора учёта (ПУ)" dataDxfId="4"/>
+    <tableColumn id="15" xr3:uid="{A0EE0DB4-3FFB-44BA-B551-5603F232362A}" name="Ввод (1ф,3ф)" dataDxfId="3"/>
+    <tableColumn id="16" xr3:uid="{1A5B5EDA-F0EA-4C1C-A8CB-74784364660C}" name="Широта" dataDxfId="2"/>
+    <tableColumn id="17" xr3:uid="{C5D73598-A7D8-405A-A8DB-C6CFF2827341}" name="Долгота" dataDxfId="0"/>
+    <tableColumn id="24" xr3:uid="{72285675-703C-4429-90BD-0525342470A3}" name="Вариант установки ПУ" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -855,13 +923,13 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="3" width="4.85546875" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" customWidth="1"/>
@@ -873,8 +941,9 @@
     <col min="11" max="11" width="14.7109375" customWidth="1"/>
     <col min="12" max="12" width="8.42578125" customWidth="1"/>
     <col min="13" max="13" width="4.85546875" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" style="8" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" style="8" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="101.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -882,10 +951,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -894,92 +963,92 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="1">
-        <v>61</v>
-      </c>
-      <c r="H2" s="1">
-        <v>57</v>
-      </c>
-      <c r="I2" s="1">
-        <v>23</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="M2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="1">
-        <v>1</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>24</v>
+      <c r="N2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.39370078740157483" right="0.59055118110236227" top="0.78740157480314965" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="82" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"Times New Roman,обычный"
 Реестр потребителей &amp;C&amp;"Times New Roman,обычный"
